--- a/data/processed/state_overviews/illinois_overview.xlsx
+++ b/data/processed/state_overviews/illinois_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>3468</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3,468</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Adams County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>34</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Alexander County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bond County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Boone County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Brown County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>5</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Bureau County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>14</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Calhoun County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Carroll County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>5</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Cass County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>3</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Champaign County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>75</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Christian County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>2</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Clay County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>1</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Clinton County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>3</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Coles County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>16</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Cook County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>1756</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1,756</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Crawford County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Cumberland County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>3</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>De Witt County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>2</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>DeKalb County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>18</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>3</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>DuPage County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>190</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Edgar County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>4</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Effingham County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>10</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Fayette County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>4</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Ford County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>3</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Fulton County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>11</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Greene County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>2</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Grundy County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>5</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Hamilton County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>1</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Hancock County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>3</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Hardin County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>1</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Henderson County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>2</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Henry County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>13</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Iroquois County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>6</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1544,8 +1618,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B38">
-        <v>22</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1574,8 +1650,10 @@
           <t>Jasper County</t>
         </is>
       </c>
-      <c r="B39">
-        <v>1</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1604,8 +1682,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B40">
-        <v>11</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1634,8 +1714,10 @@
           <t>Jersey County</t>
         </is>
       </c>
-      <c r="B41">
-        <v>2</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1664,8 +1746,10 @@
           <t>Jo Daviess County</t>
         </is>
       </c>
-      <c r="B42">
-        <v>11</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1694,8 +1778,10 @@
           <t>Johnson County</t>
         </is>
       </c>
-      <c r="B43">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1724,8 +1810,10 @@
           <t>Kane County</t>
         </is>
       </c>
-      <c r="B44">
-        <v>103</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1754,8 +1842,10 @@
           <t>Kankakee County</t>
         </is>
       </c>
-      <c r="B45">
-        <v>27</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1784,8 +1874,10 @@
           <t>Kendall County</t>
         </is>
       </c>
-      <c r="B46">
-        <v>8</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1814,8 +1906,10 @@
           <t>Knox County</t>
         </is>
       </c>
-      <c r="B47">
-        <v>26</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1844,8 +1938,10 @@
           <t>LaSalle County</t>
         </is>
       </c>
-      <c r="B48">
-        <v>33</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1874,8 +1970,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B49">
-        <v>118</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1904,8 +2002,10 @@
           <t>Lawrence County</t>
         </is>
       </c>
-      <c r="B50">
-        <v>1</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1934,8 +2034,10 @@
           <t>Lee County</t>
         </is>
       </c>
-      <c r="B51">
-        <v>13</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1964,8 +2066,10 @@
           <t>Livingston County</t>
         </is>
       </c>
-      <c r="B52">
-        <v>8</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1994,8 +2098,10 @@
           <t>Logan County</t>
         </is>
       </c>
-      <c r="B53">
-        <v>12</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2024,8 +2130,10 @@
           <t>Macon County</t>
         </is>
       </c>
-      <c r="B54">
-        <v>36</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2054,8 +2162,10 @@
           <t>Macoupin County</t>
         </is>
       </c>
-      <c r="B55">
-        <v>10</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -2084,8 +2194,10 @@
           <t>Madison County</t>
         </is>
       </c>
-      <c r="B56">
-        <v>52</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -2114,8 +2226,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B57">
-        <v>12</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -2144,8 +2258,10 @@
           <t>Marshall County</t>
         </is>
       </c>
-      <c r="B58">
-        <v>8</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -2174,8 +2290,10 @@
           <t>Mason County</t>
         </is>
       </c>
-      <c r="B59">
-        <v>3</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -2204,8 +2322,10 @@
           <t>Massac County</t>
         </is>
       </c>
-      <c r="B60">
-        <v>3</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -2234,8 +2354,10 @@
           <t>McDonough County</t>
         </is>
       </c>
-      <c r="B61">
-        <v>10</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -2264,8 +2386,10 @@
           <t>McHenry County</t>
         </is>
       </c>
-      <c r="B62">
-        <v>42</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -2294,8 +2418,10 @@
           <t>McLean County</t>
         </is>
       </c>
-      <c r="B63">
-        <v>51</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -2324,8 +2450,10 @@
           <t>Menard County</t>
         </is>
       </c>
-      <c r="B64">
-        <v>3</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -2354,8 +2482,10 @@
           <t>Mercer County</t>
         </is>
       </c>
-      <c r="B65">
-        <v>4</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -2384,8 +2514,10 @@
           <t>Monroe County</t>
         </is>
       </c>
-      <c r="B66">
-        <v>2</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -2414,8 +2546,10 @@
           <t>Montgomery County</t>
         </is>
       </c>
-      <c r="B67">
-        <v>5</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -2444,8 +2578,10 @@
           <t>Morgan County</t>
         </is>
       </c>
-      <c r="B68">
-        <v>12</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -2474,8 +2610,10 @@
           <t>Moultrie County</t>
         </is>
       </c>
-      <c r="B69">
-        <v>6</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -2504,8 +2642,10 @@
           <t>Ogle County</t>
         </is>
       </c>
-      <c r="B70">
-        <v>11</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -2534,8 +2674,10 @@
           <t>Peoria County</t>
         </is>
       </c>
-      <c r="B71">
-        <v>80</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -2564,8 +2706,10 @@
           <t>Perry County</t>
         </is>
       </c>
-      <c r="B72">
-        <v>7</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -2594,8 +2738,10 @@
           <t>Piatt County</t>
         </is>
       </c>
-      <c r="B73">
-        <v>2</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -2624,8 +2770,10 @@
           <t>Pike County</t>
         </is>
       </c>
-      <c r="B74">
-        <v>1</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -2654,8 +2802,10 @@
           <t>Pope County</t>
         </is>
       </c>
-      <c r="B75">
-        <v>1</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -2684,8 +2834,10 @@
           <t>Pulaski County</t>
         </is>
       </c>
-      <c r="B76">
-        <v>1</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -2714,8 +2866,10 @@
           <t>Putnam County</t>
         </is>
       </c>
-      <c r="B77">
-        <v>2</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -2744,8 +2898,10 @@
           <t>Randolph County</t>
         </is>
       </c>
-      <c r="B78">
-        <v>3</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -2774,8 +2930,10 @@
           <t>Richland County</t>
         </is>
       </c>
-      <c r="B79">
-        <v>2</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -2804,8 +2962,10 @@
           <t>Rock Island County</t>
         </is>
       </c>
-      <c r="B80">
-        <v>48</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -2834,8 +2994,10 @@
           <t>Saline County</t>
         </is>
       </c>
-      <c r="B81">
-        <v>5</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -2864,8 +3026,10 @@
           <t>Sangamon County</t>
         </is>
       </c>
-      <c r="B82">
-        <v>105</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -2894,8 +3058,10 @@
           <t>Schuyler County</t>
         </is>
       </c>
-      <c r="B83">
-        <v>1</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -2924,8 +3090,10 @@
           <t>Shelby County</t>
         </is>
       </c>
-      <c r="B84">
-        <v>1</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -2954,8 +3122,10 @@
           <t>St. Clair County</t>
         </is>
       </c>
-      <c r="B85">
-        <v>54</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -2984,8 +3154,10 @@
           <t>Stark County</t>
         </is>
       </c>
-      <c r="B86">
-        <v>1</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -3014,8 +3186,10 @@
           <t>Stephenson County</t>
         </is>
       </c>
-      <c r="B87">
-        <v>13</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -3044,8 +3218,10 @@
           <t>Tazewell County</t>
         </is>
       </c>
-      <c r="B88">
-        <v>21</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -3074,8 +3250,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B89">
-        <v>4</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -3104,8 +3282,10 @@
           <t>Vermilion County</t>
         </is>
       </c>
-      <c r="B90">
-        <v>21</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -3134,8 +3314,10 @@
           <t>Warren County</t>
         </is>
       </c>
-      <c r="B91">
-        <v>11</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -3164,8 +3346,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B92">
-        <v>2</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -3194,8 +3378,10 @@
           <t>Wayne County</t>
         </is>
       </c>
-      <c r="B93">
-        <v>6</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -3224,8 +3410,10 @@
           <t>White County</t>
         </is>
       </c>
-      <c r="B94">
-        <v>3</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -3254,8 +3442,10 @@
           <t>Whiteside County</t>
         </is>
       </c>
-      <c r="B95">
-        <v>16</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -3284,8 +3474,10 @@
           <t>Will County</t>
         </is>
       </c>
-      <c r="B96">
-        <v>68</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -3314,8 +3506,10 @@
           <t>Williamson County</t>
         </is>
       </c>
-      <c r="B97">
-        <v>12</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -3344,8 +3538,10 @@
           <t>Winnebago County</t>
         </is>
       </c>
-      <c r="B98">
-        <v>85</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -3374,8 +3570,10 @@
           <t>Woodford County</t>
         </is>
       </c>
-      <c r="B99">
-        <v>8</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -3395,6 +3593,38 @@
       <c r="F99" t="inlineStr">
         <is>
           <t>62.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3,468</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>$9,986,549,815</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8.22%</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-13.23%</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>67.30%</t>
         </is>
       </c>
     </row>
@@ -3449,8 +3679,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>169</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3479,8 +3711,10 @@
           <t>Congressional District 10</t>
         </is>
       </c>
-      <c r="B3">
-        <v>149</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3509,8 +3743,10 @@
           <t>Congressional District 11</t>
         </is>
       </c>
-      <c r="B4">
-        <v>133</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3539,8 +3775,10 @@
           <t>Congressional District 12</t>
         </is>
       </c>
-      <c r="B5">
-        <v>134</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3569,8 +3807,10 @@
           <t>Congressional District 13</t>
         </is>
       </c>
-      <c r="B6">
-        <v>288</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3599,8 +3839,10 @@
           <t>Congressional District 14</t>
         </is>
       </c>
-      <c r="B7">
-        <v>107</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3629,8 +3871,10 @@
           <t>Congressional District 15</t>
         </is>
       </c>
-      <c r="B8">
-        <v>173</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -3659,8 +3903,10 @@
           <t>Congressional District 16</t>
         </is>
       </c>
-      <c r="B9">
-        <v>146</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -3689,8 +3935,10 @@
           <t>Congressional District 17</t>
         </is>
       </c>
-      <c r="B10">
-        <v>319</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3719,8 +3967,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B11">
-        <v>166</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3749,8 +3999,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B12">
-        <v>132</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -3779,8 +4031,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B13">
-        <v>112</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -3809,8 +4063,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B14">
-        <v>230</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -3839,8 +4095,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B15">
-        <v>123</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -3869,8 +4127,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B16">
-        <v>723</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -3899,8 +4159,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B17">
-        <v>129</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -3929,8 +4191,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B18">
-        <v>235</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -3959,8 +4223,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B19">
-        <v>3468</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3,468</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -4034,8 +4300,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>895</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4064,8 +4332,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>1034</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,034</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4094,8 +4364,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>561</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4124,8 +4396,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>304</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4154,8 +4428,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>551</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4184,8 +4460,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>123</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4214,8 +4492,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3468</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3,468</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4289,8 +4569,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>343</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4319,8 +4601,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>330</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4349,8 +4633,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>107</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4379,8 +4665,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>307</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4409,8 +4697,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>46</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4439,8 +4729,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1062</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1,062</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4469,8 +4761,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>37</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -4499,8 +4793,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4529,8 +4825,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>305</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4559,8 +4857,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>91</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -4589,8 +4889,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>773</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -4619,8 +4921,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>63</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -4649,8 +4953,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>3468</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3,468</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/illinois_overview.xlsx
+++ b/data/processed/state_overviews/illinois_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,155 +431,155 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Adams County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$35,635,199</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8.95%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-27.71%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>76.47%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alexander County</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3,468</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$1,462,063</t>
+          <t>$9,986,549,815</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.05%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-88.77%</t>
+          <t>-13.23%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bond County</t>
+          <t>Adams County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$8,192,228</t>
+          <t>$35,635,199</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.69%</t>
+          <t>8.95%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-36.22%</t>
+          <t>-27.71%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>76.47%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Boone County</t>
+          <t>Alexander County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$2,827,845</t>
+          <t>$1,462,063</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>8.05%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-27.04%</t>
+          <t>-88.77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -591,155 +591,155 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Brown County</t>
+          <t>Bond County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,203,398</t>
+          <t>$8,192,228</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-11.47%</t>
+          <t>8.69%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-57.26%</t>
+          <t>-36.22%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bureau County</t>
+          <t>Boone County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$23,711,386</t>
+          <t>$2,827,845</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.98%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-20.56%</t>
+          <t>-27.04%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64.29%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Calhoun County</t>
+          <t>Brown County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$39,048</t>
+          <t>$1,203,398</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.60%</t>
+          <t>-11.47%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.22%</t>
+          <t>-57.26%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Carroll County</t>
+          <t>Bureau County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,478,234</t>
+          <t>$23,711,386</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-3.37%</t>
+          <t>5.98%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-14.77%</t>
+          <t>-20.56%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>64.29%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cass County</t>
+          <t>Calhoun County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$6,380,770</t>
+          <t>$39,048</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.42%</t>
+          <t>2.60%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-96.48%</t>
+          <t>-6.22%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -751,155 +751,155 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Champaign County</t>
+          <t>Carroll County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$63,038,204</t>
+          <t>$1,478,234</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.36%</t>
+          <t>-3.37%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-12.03%</t>
+          <t>-14.77%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>64.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Christian County</t>
+          <t>Cass County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$7,443,968</t>
+          <t>$6,380,770</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.85%</t>
+          <t>-0.42%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.51%</t>
+          <t>-96.48%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>40.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Champaign County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,717,638</t>
+          <t>$63,038,204</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.99%</t>
+          <t>8.36%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.76%</t>
+          <t>-12.03%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>64.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Clay County</t>
+          <t>Christian County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$694,303</t>
+          <t>$7,443,968</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>31.86%</t>
+          <t>9.85%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.42%</t>
+          <t>4.51%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Clinton County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$1,193,662</t>
+          <t>$1,717,638</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.80%</t>
+          <t>2.99%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-23.59%</t>
+          <t>-16.76%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -911,327 +911,327 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Coles County</t>
+          <t>Clay County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$14,464,973</t>
+          <t>$694,303</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10.88%</t>
+          <t>31.86%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-43.88%</t>
+          <t>9.42%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cook County</t>
+          <t>Clinton County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1,756</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$7,087,249,278</t>
+          <t>$1,193,662</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>8.80%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-12.03%</t>
+          <t>-23.59%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>66.51%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Crawford County</t>
+          <t>Coles County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$1,810,489</t>
+          <t>$14,464,973</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-11.51%</t>
+          <t>10.88%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-67.36%</t>
+          <t>-43.88%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cumberland County</t>
+          <t>Cook County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1,756</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$22,132,076</t>
+          <t>$7,087,249,278</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>14.35%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-10.71%</t>
+          <t>-12.03%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.51%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>De Witt County</t>
+          <t>Crawford County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$88,631</t>
+          <t>$1,810,489</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11.43%</t>
+          <t>-11.51%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.97%</t>
+          <t>-67.36%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DeKalb County</t>
+          <t>Cumberland County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$32,360,375</t>
+          <t>$22,132,076</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>7.96%</t>
+          <t>14.35%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-43.21%</t>
+          <t>-10.71%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>De Witt County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$484,933</t>
+          <t>$88,631</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>22.01%</t>
+          <t>11.43%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-11.23%</t>
+          <t>3.97%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DuPage County</t>
+          <t>DeKalb County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$260,936,637</t>
+          <t>$32,360,375</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11.40%</t>
+          <t>7.96%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-1.75%</t>
+          <t>-43.21%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>54.21%</t>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Edgar County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$996,213</t>
+          <t>$484,933</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>30.05%</t>
+          <t>22.01%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>26.37%</t>
+          <t>-11.23%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Effingham County</t>
+          <t>DuPage County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$29,371,785</t>
+          <t>$260,936,637</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.19%</t>
+          <t>11.40%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-54.69%</t>
+          <t>-1.75%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>54.21%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fayette County</t>
+          <t>Edgar County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1241,253 +1241,253 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$1,534,444</t>
+          <t>$996,213</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.09%</t>
+          <t>30.05%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.35%</t>
+          <t>26.37%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ford County</t>
+          <t>Effingham County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$829,727</t>
+          <t>$29,371,785</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>42.25%</t>
+          <t>3.19%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11.68%</t>
+          <t>-54.69%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Fayette County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$12,945,672</t>
+          <t>$1,534,444</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>17.72%</t>
+          <t>4.09%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-10.58%</t>
+          <t>3.35%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fulton County</t>
+          <t>Ford County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$8,695,560</t>
+          <t>$829,727</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9.40%</t>
+          <t>42.25%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-8.61%</t>
+          <t>11.68%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Greene County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$1,214,635</t>
+          <t>$12,945,672</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>10.24%</t>
+          <t>17.72%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-16.73%</t>
+          <t>-10.58%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Grundy County</t>
+          <t>Fulton County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$2,404,242</t>
+          <t>$8,695,560</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>4.61%</t>
+          <t>9.40%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-9.43%</t>
+          <t>-8.61%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hamilton County</t>
+          <t>Greene County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$806,891</t>
+          <t>$1,214,635</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>73.41%</t>
+          <t>10.24%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.55%</t>
+          <t>-16.73%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hancock County</t>
+          <t>Grundy County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$7,458,506</t>
+          <t>$2,404,242</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>21.79%</t>
+          <t>4.61%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>-9.43%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hardin County</t>
+          <t>Hamilton County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1497,177 +1497,177 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$1,674,516</t>
+          <t>$806,891</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-6.46%</t>
+          <t>73.41%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-68.56%</t>
+          <t>4.55%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Henderson County</t>
+          <t>Hancock County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$2,885,844</t>
+          <t>$7,458,506</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3.45%</t>
+          <t>21.79%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-29.18%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Henry County</t>
+          <t>Hardin County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,997,325</t>
+          <t>$1,674,516</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>-6.46%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>-68.56%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>46.15%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Iroquois County</t>
+          <t>Henderson County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$2,771,909</t>
+          <t>$2,885,844</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>3.45%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-54.94%</t>
+          <t>-29.18%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Henry County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$26,890,597</t>
+          <t>$1,997,325</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>4.41%</t>
+          <t>2.38%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-40.74%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>68.18%</t>
+          <t>46.15%</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jasper County</t>
+          <t>Iroquois County</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>$104,787</t>
+          <t>$2,771,909</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-5.15%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-53.68%</t>
+          <t>-54.94%</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1679,59 +1679,59 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>$14,933,325</t>
+          <t>$26,890,597</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>4.41%</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-60.97%</t>
+          <t>-40.74%</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>68.18%</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Jersey County</t>
+          <t>Jasper County</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$292,485</t>
+          <t>$104,787</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2.13%</t>
+          <t>-5.15%</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-52.08%</t>
+          <t>-53.68%</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jo Daviess County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1753,49 +1753,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>$5,522,603</t>
+          <t>$14,933,325</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>17.11%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2.14%</t>
+          <t>-60.97%</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>45.45%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Johnson County</t>
+          <t>Jersey County</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>$7,454,451</t>
+          <t>$292,485</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.72%</t>
+          <t>2.13%</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-56.29%</t>
+          <t>-52.08%</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1807,1019 +1807,1019 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Kane County</t>
+          <t>Jo Daviess County</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>$158,330,811</t>
+          <t>$5,522,603</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5.90%</t>
+          <t>17.11%</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-16.63%</t>
+          <t>2.14%</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>68.93%</t>
+          <t>45.45%</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Kankakee County</t>
+          <t>Johnson County</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>$35,503,538</t>
+          <t>$7,454,451</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5.69%</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-24.75%</t>
+          <t>-56.29%</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>70.37%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kendall County</t>
+          <t>Kane County</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>$2,355,882</t>
+          <t>$158,330,811</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>5.90%</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-17.74%</t>
+          <t>-16.63%</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>68.93%</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Knox County</t>
+          <t>Kankakee County</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>$26,854,740</t>
+          <t>$35,503,538</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5.38%</t>
+          <t>5.69%</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-6.90%</t>
+          <t>-24.75%</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>69.23%</t>
+          <t>70.37%</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LaSalle County</t>
+          <t>Kendall County</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>$12,365,527</t>
+          <t>$2,355,882</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2.94%</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-9.15%</t>
+          <t>-17.74%</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>75.76%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Knox County</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>$91,002,837</t>
+          <t>$26,854,740</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>11.67%</t>
+          <t>5.38%</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-4.83%</t>
+          <t>-6.90%</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>55.93%</t>
+          <t>69.23%</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lawrence County</t>
+          <t>LaSalle County</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>$185,362</t>
+          <t>$12,365,527</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-22.35%</t>
+          <t>2.94%</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-68.64%</t>
+          <t>-9.15%</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.76%</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lee County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>$18,668,377</t>
+          <t>$91,002,837</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.27%</t>
+          <t>11.67%</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-16.76%</t>
+          <t>-4.83%</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>55.93%</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Livingston County</t>
+          <t>Lawrence County</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>$5,897,794</t>
+          <t>$185,362</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9.95%</t>
+          <t>-22.35%</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-6.76%</t>
+          <t>-68.64%</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Logan County</t>
+          <t>Lee County</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>$20,359,589</t>
+          <t>$18,668,377</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-4.10%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-14.52%</t>
+          <t>-16.76%</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Macon County</t>
+          <t>Livingston County</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>$51,066,267</t>
+          <t>$5,897,794</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>9.95%</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-40.62%</t>
+          <t>-6.76%</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Macoupin County</t>
+          <t>Logan County</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>$18,842,767</t>
+          <t>$20,359,589</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>14.72%</t>
+          <t>-4.10%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-7.20%</t>
+          <t>-14.52%</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Madison County</t>
+          <t>Macon County</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>$61,489,123</t>
+          <t>$51,066,267</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6.80%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-11.66%</t>
+          <t>-40.62%</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>73.08%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Macoupin County</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>$18,799,349</t>
+          <t>$18,842,767</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>7.12%</t>
+          <t>14.72%</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-11.22%</t>
+          <t>-7.20%</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Marshall County</t>
+          <t>Madison County</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>52</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>$1,220,966</t>
+          <t>$61,489,123</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-0.28%</t>
+          <t>6.80%</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-43.39%</t>
+          <t>-11.66%</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>73.08%</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mason County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>$1,302,139</t>
+          <t>$18,799,349</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.02%</t>
+          <t>7.12%</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-14.35%</t>
+          <t>-11.22%</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Massac County</t>
+          <t>Marshall County</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>$994,095</t>
+          <t>$1,220,966</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>-0.28%</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-31.26%</t>
+          <t>-43.39%</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>McDonough County</t>
+          <t>Mason County</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>$8,743,635</t>
+          <t>$1,302,139</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14.16%</t>
+          <t>10.02%</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-12.15%</t>
+          <t>-14.35%</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>70.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>McHenry County</t>
+          <t>Massac County</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>$23,873,733</t>
+          <t>$994,095</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>13.28%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-11.23%</t>
+          <t>-31.26%</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>61.90%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>McLean County</t>
+          <t>McDonough County</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>$597,695,802</t>
+          <t>$8,743,635</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10.90%</t>
+          <t>14.16%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-26.63%</t>
+          <t>-12.15%</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>70.00%</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Menard County</t>
+          <t>McHenry County</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>$220,201</t>
+          <t>$23,873,733</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1.58%</t>
+          <t>13.28%</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-30.03%</t>
+          <t>-11.23%</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.90%</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Mercer County</t>
+          <t>McLean County</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>51</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>$1,260,828</t>
+          <t>$597,695,802</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>12.08%</t>
+          <t>10.90%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-2.81%</t>
+          <t>-26.63%</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Monroe County</t>
+          <t>Menard County</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>$535,244</t>
+          <t>$220,201</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>39.25%</t>
+          <t>1.58%</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-5.27%</t>
+          <t>-30.03%</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Montgomery County</t>
+          <t>Mercer County</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>$1,144,703</t>
+          <t>$1,260,828</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.19%</t>
+          <t>12.08%</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-55.44%</t>
+          <t>-2.81%</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Morgan County</t>
+          <t>Monroe County</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>$12,108,399</t>
+          <t>$535,244</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>6.23%</t>
+          <t>39.25%</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-50.47%</t>
+          <t>-5.27%</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Moultrie County</t>
+          <t>Montgomery County</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>$1,502,128</t>
+          <t>$1,144,703</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>15.81%</t>
+          <t>5.19%</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-20.22%</t>
+          <t>-55.44%</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ogle County</t>
+          <t>Morgan County</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>$6,283,653</t>
+          <t>$12,108,399</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>6.89%</t>
+          <t>6.23%</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-15.56%</t>
+          <t>-50.47%</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Peoria County</t>
+          <t>Moultrie County</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>$113,459,689</t>
+          <t>$1,502,128</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>7.11%</t>
+          <t>15.81%</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-9.85%</t>
+          <t>-20.22%</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>66.25%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Perry County</t>
+          <t>Ogle County</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>$8,255,522</t>
+          <t>$6,283,653</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5.87%</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-49.84%</t>
+          <t>-15.56%</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Piatt County</t>
+          <t>Peoria County</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>$426,671</t>
+          <t>$113,459,689</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>15.81%</t>
+          <t>7.11%</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>6.66%</t>
+          <t>-9.85%</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>66.25%</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Pike County</t>
+          <t>Perry County</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>$51,224</t>
+          <t>$8,255,522</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-237.53%</t>
+          <t>5.87%</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-260.68%</t>
+          <t>-49.84%</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pope County</t>
+          <t>Piatt County</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>$615</t>
+          <t>$426,671</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3.95%</t>
+          <t>15.81%</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.93%</t>
+          <t>6.66%</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -2831,7 +2831,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Pulaski County</t>
+          <t>Pike County</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2841,17 +2841,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>$5,824,776</t>
+          <t>$51,224</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>-237.53%</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-99.98%</t>
+          <t>-260.68%</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -2863,59 +2863,59 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Putnam County</t>
+          <t>Pope County</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>$178,212</t>
+          <t>$615</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-209.03%</t>
+          <t>3.95%</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-242.47%</t>
+          <t>1.93%</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Randolph County</t>
+          <t>Pulaski County</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>$11,049,836</t>
+          <t>$5,824,776</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-1.83%</t>
+          <t>-0.57%</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-49.43%</t>
+          <t>-99.98%</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -2927,7 +2927,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Richland County</t>
+          <t>Putnam County</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2937,17 +2937,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>$4,704,703</t>
+          <t>$178,212</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-9.96%</t>
+          <t>-209.03%</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-60.78%</t>
+          <t>-242.47%</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -2959,59 +2959,59 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Rock Island County</t>
+          <t>Randolph County</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>$75,296,653</t>
+          <t>$11,049,836</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7.91%</t>
+          <t>-1.83%</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-14.11%</t>
+          <t>-49.43%</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Saline County</t>
+          <t>Richland County</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>$8,237,315</t>
+          <t>$4,704,703</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-0.04%</t>
+          <t>-9.96%</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-34.32%</t>
+          <t>-60.78%</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3023,135 +3023,135 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sangamon County</t>
+          <t>Rock Island County</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>$263,902,543</t>
+          <t>$75,296,653</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>7.91%</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-23.52%</t>
+          <t>-14.11%</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>67.62%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Schuyler County</t>
+          <t>Saline County</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>$78,333</t>
+          <t>$8,237,315</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>12.99%</t>
+          <t>-0.04%</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>4.40%</t>
+          <t>-34.32%</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Shelby County</t>
+          <t>Sangamon County</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>$571,233</t>
+          <t>$263,902,543</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12.08%</t>
+          <t>4.60%</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>4.23%</t>
+          <t>-23.52%</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>67.62%</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>St. Clair County</t>
+          <t>Schuyler County</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>$158,559,151</t>
+          <t>$78,333</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>12.99%</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-23.84%</t>
+          <t>4.40%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>74.07%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Stark County</t>
+          <t>Shelby County</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3161,17 +3161,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>$26,904</t>
+          <t>$571,233</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>51.49%</t>
+          <t>12.08%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>41.53%</t>
+          <t>4.23%</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3183,103 +3183,103 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Stephenson County</t>
+          <t>St. Clair County</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>54</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>$14,525,182</t>
+          <t>$158,559,151</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>11.79%</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-55.23%</t>
+          <t>-23.84%</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>92.31%</t>
+          <t>74.07%</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Tazewell County</t>
+          <t>Stark County</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>$32,347,486</t>
+          <t>$26,904</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>11.63%</t>
+          <t>51.49%</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.37%</t>
+          <t>41.53%</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>47.62%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Stephenson County</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>$6,957,886</t>
+          <t>$14,525,182</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>8.89%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-11.23%</t>
+          <t>-55.23%</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>92.31%</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Vermilion County</t>
+          <t>Tazewell County</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3289,342 +3289,374 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>$27,482,276</t>
+          <t>$32,347,486</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>3.85%</t>
+          <t>11.63%</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-40.26%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>47.62%</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Warren County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>$11,806,981</t>
+          <t>$6,957,886</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-2.51%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-34.30%</t>
+          <t>-11.23%</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>90.91%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Vermilion County</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>$399,004</t>
+          <t>$27,482,276</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-1.84%</t>
+          <t>3.85%</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-39.75%</t>
+          <t>-40.26%</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Wayne County</t>
+          <t>Warren County</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>$822,802</t>
+          <t>$11,806,981</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>15.64%</t>
+          <t>-2.51%</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>-34.30%</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>90.91%</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>White County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>$14,738,664</t>
+          <t>$399,004</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-0.58%</t>
+          <t>-1.84%</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-89.22%</t>
+          <t>-39.75%</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Whiteside County</t>
+          <t>Wayne County</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>$30,278,452</t>
+          <t>$822,802</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>3.70%</t>
+          <t>15.64%</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-16.50%</t>
+          <t>-0.81%</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>87.50%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Will County</t>
+          <t>White County</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>$114,382,152</t>
+          <t>$14,738,664</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5.85%</t>
+          <t>-0.58%</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-18.31%</t>
+          <t>-89.22%</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>72.06%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Williamson County</t>
+          <t>Whiteside County</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>$20,641,390</t>
+          <t>$30,278,452</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4.39%</t>
+          <t>3.70%</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-49.16%</t>
+          <t>-16.50%</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>91.67%</t>
+          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Winnebago County</t>
+          <t>Will County</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>68</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>$173,678,073</t>
+          <t>$114,382,152</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>8.54%</t>
+          <t>5.85%</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-24.49%</t>
+          <t>-18.31%</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>75.29%</t>
+          <t>72.06%</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Woodford County</t>
+          <t>Williamson County</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>$3,927,743</t>
+          <t>$20,641,390</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.14%</t>
+          <t>4.39%</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-2.18%</t>
+          <t>-49.16%</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>91.67%</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Winnebago County</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>3,468</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>$9,986,549,815</t>
+          <t>$173,678,073</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>8.54%</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-13.23%</t>
+          <t>-24.49%</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>75.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Woodford County</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>$3,927,743</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.14%</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-2.18%</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -3635,7 +3667,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3644,608 +3676,640 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,860,017,084</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.78%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-27.16%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>73.37%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 10</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>3,468</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$139,316,625</t>
+          <t>$9,986,549,815</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>8.22%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-3.03%</t>
+          <t>-13.23%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>57.05%</t>
+          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 11</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$174,797,883</t>
+          <t>$1,860,017,084</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.53%</t>
+          <t>7.78%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-9.32%</t>
+          <t>-27.16%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>73.37%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 12</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$230,383,098</t>
+          <t>$275,192,818</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-37.30%</t>
+          <t>-26.28%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>81.34%</t>
+          <t>74.10%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 13</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$545,568,902</t>
+          <t>$334,267,895</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.32%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-19.93%</t>
+          <t>-18.84%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.92%</t>
+          <t>72.73%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 14</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$149,330,515</t>
+          <t>$358,333,275</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5.38%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-21.32%</t>
+          <t>-16.46%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.90%</t>
+          <t>72.32%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 15</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$192,574,457</t>
+          <t>$414,194,550</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>10.99%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-10.12%</t>
+          <t>-5.11%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>59.57%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 16</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$124,692,814</t>
+          <t>$266,969,813</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7.86%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-10.87%</t>
+          <t>-6.27%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>63.01%</t>
+          <t>57.72%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 17</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>723</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$1,036,786,520</t>
+          <t>$3,430,972,512</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-16.90%</t>
+          <t>-12.13%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>71.79%</t>
+          <t>65.01%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$275,192,818</t>
+          <t>$183,071,498</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-26.28%</t>
+          <t>-11.08%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>74.10%</t>
+          <t>60.47%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>9th Congressional district</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>235</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$334,267,895</t>
+          <t>$270,079,556</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-18.84%</t>
+          <t>-5.67%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>63.83%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>10th Congressional district</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$358,333,275</t>
+          <t>$139,316,625</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-16.46%</t>
+          <t>-3.03%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>72.32%</t>
+          <t>57.05%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>11th Congressional district</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$414,194,550</t>
+          <t>$174,797,883</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>8.53%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-5.11%</t>
+          <t>-9.32%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>59.57%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>12th Congressional district</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$266,969,813</t>
+          <t>$230,383,098</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>3.67%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-6.27%</t>
+          <t>-37.30%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>57.72%</t>
+          <t>81.34%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>13th Congressional district</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>288</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$3,430,972,512</t>
+          <t>$545,568,902</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>6.32%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-12.13%</t>
+          <t>-19.93%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>65.01%</t>
+          <t>72.92%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>14th Congressional district</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$183,071,498</t>
+          <t>$149,330,515</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>5.38%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-11.08%</t>
+          <t>-21.32%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>60.47%</t>
+          <t>72.90%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>15th Congressional district</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$270,079,556</t>
+          <t>$192,574,457</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-5.67%</t>
+          <t>-10.12%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>63.83%</t>
+          <t>63.58%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>16th Congressional district</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3,468</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$9,986,549,815</t>
+          <t>$124,692,814</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8.22%</t>
+          <t>7.86%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-13.23%</t>
+          <t>-10.87%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>67.30%</t>
+          <t>63.01%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>17th Congressional district</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$1,036,786,520</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.97%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-16.90%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>71.79%</t>
         </is>
       </c>
     </row>
@@ -4270,34 +4334,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4329,128 +4393,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$889,617,369</t>
+          <t>$7,954,485,008</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>4.68%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.71%</t>
+          <t>-7.69%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.99%</t>
+          <t>64.79%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$155,916,336</t>
+          <t>$889,617,369</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-15.40%</t>
+          <t>-14.71%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.16%</t>
+          <t>67.99%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>561</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$881,664,831</t>
+          <t>$155,916,336</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.64%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-20.19%</t>
+          <t>-15.40%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74.34%</t>
+          <t>69.16%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>304</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$7,954,485,008</t>
+          <t>$881,664,831</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>5.64%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-7.69%</t>
+          <t>-20.19%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>64.79%</t>
+          <t>74.34%</t>
         </is>
       </c>
     </row>
@@ -4539,34 +4603,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4598,7 +4662,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -4630,7 +4694,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -4662,7 +4726,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4726,7 +4790,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4758,7 +4822,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -4790,160 +4854,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>305</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,214,334</t>
+          <t>$611,222,174</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>6.55%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-26.46%</t>
+          <t>-22.32%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>70.49%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$611,222,174</t>
+          <t>$41,417,034</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>15.17%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-22.32%</t>
+          <t>2.46%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70.49%</t>
+          <t>43.96%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$41,417,034</t>
+          <t>$1,214,334</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>15.17%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>-26.46%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>43.96%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,270,326,439</t>
+          <t>$2,081,293,959</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-13.35%</t>
+          <t>-4.10%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>69.34%</t>
+          <t>60.32%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>773</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,081,293,959</t>
+          <t>$2,270,326,439</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-4.10%</t>
+          <t>-13.35%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>60.32%</t>
+          <t>69.34%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/illinois_overview.xlsx
+++ b/data/processed/state_overviews/illinois_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>3,468</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$9,986,549,815</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-13.23%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,468</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$9,986,549,815</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>76.47%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$35,635,199</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>8.95%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-27.71%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>76.47%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,462,063</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.05%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-88.77%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$8,192,228</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-36.22%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,827,845</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>0.11%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-27.04%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,203,398</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-11.47%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-57.26%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>64.29%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$23,711,386</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>5.98%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-20.56%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>64.29%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$39,048</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-6.22%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$1,478,234</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-3.37%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-14.77%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$6,380,770</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-0.42%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-96.48%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>64.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$63,038,204</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>8.36%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-12.03%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>64.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$7,443,968</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>9.85%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.51%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$1,717,638</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2.99%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-16.76%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$694,303</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>31.86%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>9.42%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$1,193,662</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>8.80%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-23.59%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$14,464,973</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>10.88%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-43.88%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>66.51%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>1,756</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$7,087,249,278</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>-12.03%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>66.51%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$1,810,489</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>-11.51%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-67.36%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$22,132,076</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>14.35%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-10.71%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$88,631</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>11.43%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>3.97%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$32,360,375</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>7.96%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-43.21%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$484,933</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>22.01%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-11.23%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>54.21%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>190</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$260,936,637</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>11.40%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-1.75%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>54.21%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$996,213</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>30.05%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>26.37%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$29,371,785</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>3.19%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-54.69%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>25.00%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$1,534,444</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>4.09%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>3.35%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>25.00%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$829,727</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>42.25%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>11.68%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$12,945,672</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>17.72%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-10.58%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$8,695,560</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-8.61%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$1,214,635</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>10.24%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-16.73%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$2,404,242</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>4.61%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-9.43%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$806,891</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>73.41%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>4.55%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$7,458,506</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>21.79%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>0.84%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$1,674,516</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>-6.46%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-68.56%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$2,885,844</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>3.45%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-29.18%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>46.15%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$1,997,325</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2.38%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>0.33%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>46.15%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$2,771,909</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1.76%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>-54.94%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1684,27 +1684,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>68.18%</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>$26,890,597</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>4.41%</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>-40.74%</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>68.18%</t>
         </is>
       </c>
     </row>
@@ -1716,27 +1716,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>$104,787</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>-5.15%</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>-53.68%</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1748,27 +1748,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>$14,933,325</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>0.79%</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>-60.97%</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -1780,27 +1780,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>$292,485</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2.13%</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>-52.08%</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>45.45%</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>$5,522,603</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>17.11%</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>2.14%</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>45.45%</t>
         </is>
       </c>
     </row>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>$7,454,451</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1.72%</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>-56.29%</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1876,27 +1876,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>68.93%</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>103</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>$158,330,811</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>5.90%</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>-16.63%</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>68.93%</t>
         </is>
       </c>
     </row>
@@ -1908,27 +1908,27 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>70.37%</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>$35,503,538</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>5.69%</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>-24.75%</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>70.37%</t>
         </is>
       </c>
     </row>
@@ -1940,27 +1940,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>$2,355,882</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>4.12%</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>-17.74%</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -1972,27 +1972,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>69.23%</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>$26,854,740</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>5.38%</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>-6.90%</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>69.23%</t>
         </is>
       </c>
     </row>
@@ -2004,27 +2004,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>75.76%</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>$12,365,527</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2.94%</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>-9.15%</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>75.76%</t>
         </is>
       </c>
     </row>
@@ -2036,27 +2036,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>55.93%</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>$91,002,837</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>11.67%</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>-4.83%</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>55.93%</t>
         </is>
       </c>
     </row>
@@ -2068,27 +2068,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>$185,362</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>-22.35%</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>-68.64%</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2100,27 +2100,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>$18,668,377</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2.27%</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>-16.76%</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -2132,27 +2132,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>$5,897,794</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>9.95%</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>-6.76%</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2164,27 +2164,27 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>$20,359,589</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>-4.10%</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>-14.52%</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2196,27 +2196,27 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>$51,066,267</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>0.77%</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>-40.62%</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2228,27 +2228,27 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>$18,842,767</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>14.72%</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>-7.20%</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2260,27 +2260,27 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
+          <t>73.08%</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>52</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>$61,489,123</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>6.80%</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>-11.66%</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>73.08%</t>
         </is>
       </c>
     </row>
@@ -2292,27 +2292,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>$18,799,349</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>7.12%</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>-11.22%</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2324,27 +2324,27 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>$1,220,966</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>-0.28%</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>-43.39%</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -2356,27 +2356,27 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>$1,302,139</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>10.02%</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>-14.35%</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2388,27 +2388,27 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>$994,095</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>14.89%</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>-31.26%</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2420,27 +2420,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>70.00%</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>10</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>$8,743,635</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>14.16%</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>-12.15%</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>70.00%</t>
         </is>
       </c>
     </row>
@@ -2452,27 +2452,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>61.90%</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>42</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>$23,873,733</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>13.28%</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>-11.23%</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>61.90%</t>
         </is>
       </c>
     </row>
@@ -2484,27 +2484,27 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>51</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>$597,695,802</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>10.90%</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>-26.63%</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2516,27 +2516,27 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>$220,201</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1.58%</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>-30.03%</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2548,27 +2548,27 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>$1,260,828</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>12.08%</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>-2.81%</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2580,27 +2580,27 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>$535,244</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>39.25%</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>-5.27%</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -2612,27 +2612,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>$1,144,703</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>5.19%</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>-55.44%</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -2644,27 +2644,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>$12,108,399</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>6.23%</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>-50.47%</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -2676,27 +2676,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>$1,502,128</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>15.81%</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>-20.22%</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2708,27 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
+          <t>72.73%</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>$6,283,653</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>6.89%</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>-15.56%</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>72.73%</t>
         </is>
       </c>
     </row>
@@ -2740,27 +2740,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>66.25%</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>80</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>$113,459,689</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>7.11%</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>-9.85%</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>66.25%</t>
         </is>
       </c>
     </row>
@@ -2772,27 +2772,27 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>$8,255,522</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>5.87%</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>-49.84%</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>$426,671</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>15.81%</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>6.66%</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2836,27 +2836,27 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>$51,224</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>-237.53%</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>-260.68%</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2868,27 +2868,27 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>$615</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>3.95%</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1.93%</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -2900,27 +2900,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>$5,824,776</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>-0.57%</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>-99.98%</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2932,27 +2932,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>$178,212</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>-209.03%</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>-242.47%</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2964,27 +2964,27 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>$11,049,836</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>-1.83%</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>-49.43%</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -2996,27 +2996,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>$4,704,703</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>-9.96%</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>-60.78%</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3028,27 +3028,27 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>48</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>$75,296,653</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>7.91%</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>-14.11%</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -3060,27 +3060,27 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>$8,237,315</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>-0.04%</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>-34.32%</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3092,27 +3092,27 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>67.62%</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>$263,902,543</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>4.60%</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>-23.52%</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>67.62%</t>
         </is>
       </c>
     </row>
@@ -3124,27 +3124,27 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>$78,333</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>12.99%</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>4.40%</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3156,27 +3156,27 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>$571,233</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>12.08%</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>4.23%</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3188,27 +3188,27 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>$158,559,151</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>11.79%</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>-23.84%</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>74.07%</t>
         </is>
       </c>
     </row>
@@ -3220,27 +3220,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>$26,904</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>51.49%</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>41.53%</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -3252,27 +3252,27 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
+          <t>92.31%</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>$14,525,182</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>0.33%</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>-55.23%</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>92.31%</t>
         </is>
       </c>
     </row>
@@ -3284,27 +3284,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
+          <t>47.62%</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>$32,347,486</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>11.63%</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>0.37%</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>47.62%</t>
         </is>
       </c>
     </row>
@@ -3316,27 +3316,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>$6,957,886</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>8.89%</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>-11.23%</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3348,27 +3348,27 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>$27,482,276</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>3.85%</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>-40.26%</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -3380,27 +3380,27 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
+          <t>90.91%</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>$11,806,981</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>-2.51%</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>-34.30%</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>90.91%</t>
         </is>
       </c>
     </row>
@@ -3412,27 +3412,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>$399,004</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>-1.84%</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>-39.75%</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3444,27 +3444,27 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>$822,802</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>15.64%</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>-0.81%</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -3476,27 +3476,27 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>$14,738,664</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>-0.58%</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>-89.22%</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -3508,27 +3508,27 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>$30,278,452</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>3.70%</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>-16.50%</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
@@ -3540,27 +3540,27 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
+          <t>72.06%</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>$114,382,152</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>5.85%</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>-18.31%</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>72.06%</t>
         </is>
       </c>
     </row>
@@ -3572,27 +3572,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
+          <t>91.67%</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>$20,641,390</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>4.39%</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>-49.16%</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>91.67%</t>
         </is>
       </c>
     </row>
@@ -3604,27 +3604,27 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
+          <t>75.29%</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>85</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>$173,678,073</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>-24.49%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>75.29%</t>
         </is>
       </c>
     </row>
@@ -3636,27 +3636,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>$3,927,743</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>3.14%</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>-2.18%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -3681,27 +3681,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -3713,27 +3713,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -3745,571 +3745,571 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,468</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$9,986,549,815</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.23%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>73.37%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,860,017,084</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>7.78%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-27.16%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>73.37%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>57.05%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$275,192,818</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.67%</t>
+          <t>$139,316,625</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-26.28%</t>
+          <t>10.25%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>74.10%</t>
+          <t>-3.03%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>68.42%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$334,267,895</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>$174,797,883</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.84%</t>
+          <t>8.53%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>72.73%</t>
+          <t>-9.32%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>81.34%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$358,333,275</t>
+          <t>134</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>$230,383,098</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-16.46%</t>
+          <t>3.67%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>72.32%</t>
+          <t>-37.30%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>72.92%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$414,194,550</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10.99%</t>
+          <t>$545,568,902</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-5.11%</t>
+          <t>6.32%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>59.57%</t>
+          <t>-19.93%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>72.90%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$266,969,813</t>
+          <t>107</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.20%</t>
+          <t>$149,330,515</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.27%</t>
+          <t>5.38%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>57.72%</t>
+          <t>-21.32%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>63.58%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$3,430,972,512</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>$192,574,457</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-12.13%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>65.01%</t>
+          <t>-10.12%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>63.01%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$183,071,498</t>
+          <t>146</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.34%</t>
+          <t>$124,692,814</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-11.08%</t>
+          <t>7.86%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.47%</t>
+          <t>-10.87%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>71.79%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$270,079,556</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.75%</t>
+          <t>$1,036,786,520</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-5.67%</t>
+          <t>6.97%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>63.83%</t>
+          <t>-16.90%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10th Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>74.10%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$139,316,625</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10.25%</t>
+          <t>$275,192,818</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-3.03%</t>
+          <t>5.67%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>57.05%</t>
+          <t>-26.28%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>11th Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>72.73%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$174,797,883</t>
+          <t>132</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.53%</t>
+          <t>$334,267,895</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-9.32%</t>
+          <t>6.99%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>-18.84%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>72.32%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$230,383,098</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.67%</t>
+          <t>$358,333,275</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-37.30%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>81.34%</t>
+          <t>-16.46%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>59.57%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$545,568,902</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>6.32%</t>
+          <t>$414,194,550</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-19.93%</t>
+          <t>10.99%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>72.92%</t>
+          <t>-5.11%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>57.72%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$149,330,515</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>5.38%</t>
+          <t>$266,969,813</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-21.32%</t>
+          <t>9.20%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>72.90%</t>
+          <t>-6.27%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>65.01%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$192,574,457</t>
+          <t>723</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>$3,430,972,512</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-10.12%</t>
+          <t>8.82%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>63.58%</t>
+          <t>-12.13%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>60.47%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$124,692,814</t>
+          <t>129</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7.86%</t>
+          <t>$183,071,498</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-10.87%</t>
+          <t>8.34%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>63.01%</t>
+          <t>-11.08%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>63.83%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$1,036,786,520</t>
+          <t>235</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>6.97%</t>
+          <t>$270,079,556</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-16.90%</t>
+          <t>9.75%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>71.79%</t>
+          <t>-5.67%</t>
         </is>
       </c>
     </row>
@@ -4334,187 +4334,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>65.14%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>895</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$95,558,833</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>12.06%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-11.69%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>65.14%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>67.99%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$7,954,485,008</t>
+          <t>1,034</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.68%</t>
+          <t>$889,617,369</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.69%</t>
+          <t>8.32%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>64.79%</t>
+          <t>-14.71%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1,034</t>
+          <t>69.16%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$889,617,369</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.32%</t>
+          <t>$155,916,336</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.71%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.99%</t>
+          <t>-15.40%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>74.34%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$155,916,336</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>$881,664,831</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-15.40%</t>
+          <t>5.64%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.16%</t>
+          <t>-20.19%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>64.79%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$881,664,831</t>
+          <t>551</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.64%</t>
+          <t>$7,954,485,008</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.19%</t>
+          <t>4.68%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>74.34%</t>
+          <t>-7.69%</t>
         </is>
       </c>
     </row>
@@ -4526,27 +4526,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>62.60%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>123</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$9,307,438</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>20.66%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-16.11%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>62.60%</t>
         </is>
       </c>
     </row>
@@ -4558,27 +4558,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3,468</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$9,986,549,815</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.23%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
@@ -4603,155 +4603,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>61.81%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>343</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$225,819,126</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.58%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-8.01%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>61.81%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>330</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,094,349,025</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>8.69%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-5.92%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>48.60%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>107</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$150,093,806</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>17.23%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.66%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>48.60%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>68.40%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>307</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$816,223,303</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.54%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-13.62%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>68.40%</t>
         </is>
       </c>
     </row>
@@ -4763,251 +4763,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>41.30%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>46</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$247,267,233</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>41.30%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>73.82%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>1,062</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,434,394,548</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.63%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-22.09%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>73.82%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>40.54%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$12,928,834</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>17.92%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>8.84%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>40.54%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$611,222,174</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.55%</t>
+          <t>$1,214,334</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-22.32%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>70.49%</t>
+          <t>-26.46%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>70.49%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$41,417,034</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.17%</t>
+          <t>$611,222,174</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.46%</t>
+          <t>6.55%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>43.96%</t>
+          <t>-22.32%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>43.96%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$1,214,334</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>$41,417,034</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-26.46%</t>
+          <t>15.17%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>2.46%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>69.34%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,081,293,959</t>
+          <t>773</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>$2,270,326,439</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-4.10%</t>
+          <t>6.76%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>60.32%</t>
+          <t>-13.35%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>773</t>
+          <t>60.32%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,270,326,439</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>6.76%</t>
+          <t>$2,081,293,959</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-13.35%</t>
+          <t>4.01%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69.34%</t>
+          <t>-4.10%</t>
         </is>
       </c>
     </row>
@@ -5019,27 +5019,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>67.30%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3,468</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$9,986,549,815</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>8.22%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-13.23%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>67.30%</t>
         </is>
       </c>
     </row>
